--- a/ответы.xlsx
+++ b/ответы.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Сентябрь</t>
   </si>
   <si>
-    <t xml:space="preserve">Подземка</t>
+    <t xml:space="preserve">Поземка</t>
   </si>
   <si>
     <t xml:space="preserve">томас эдисон</t>
@@ -166,7 +166,7 @@
     <t xml:space="preserve">Украина</t>
   </si>
   <si>
-    <t xml:space="preserve">Каравай</t>
+    <t xml:space="preserve">оливье</t>
   </si>
   <si>
     <t xml:space="preserve">телятина</t>
@@ -416,7 +416,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
